--- a/biology/Botanique/Otto_Thomas_Solbrig/Otto_Thomas_Solbrig.xlsx
+++ b/biology/Botanique/Otto_Thomas_Solbrig/Otto_Thomas_Solbrig.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Otto Thomas Solbrig (né le 21 décembre 1930 à Mar del Plata et mort le 8 avril 2023[1]) est un écologue et biologiste de l’évolution argentin.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Otto Thomas Solbrig (né le 21 décembre 1930 à Mar del Plata et mort le 8 avril 2023) est un écologue et biologiste de l’évolution argentin.
 Enseignant aux États-Unis, il est spécialisé en biologie des populations végétales, et en particulier sur l’interphase entre l’écologie, l’évolution et l’économie et de ses relations avec l’utilisation des ressources naturelles en agriculture en Amérique latine. En outre, il est attentif à l'histoire économique de l'agriculture et de l'agro-industrie en Argentine.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Études</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De 1945 à 1948, Otto Thomas Solbrig réalise ses études secondaires au lycée militaire général San Martin (es) et auparavant au collège Mariano Moreno de la ville de Mar del Plata.
 En 1954, il obtient un diplôme de biologie à l’université nationale de La Plata, et en 1959 un doctorat en botanique à l’université de Californie.
@@ -545,7 +559,9 @@
           <t>Titres universitaires et récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ph.D., université de Californie, Berkeley, 1959
 Master honoris causa, université Harvard, 1969
@@ -582,7 +598,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Otto Thomas Solbrig a publié 21 livres et plus de 280 articles dans des revues spécialisées et générales.
 1977 : Convergent Evolution in Warm Deserts : An Examination of Strategies and Patterns in Deserts of Argentina and the United States. 333 pp.  (ISBN 0-87933-276-X)
@@ -627,7 +645,9 @@
           <t>Description d’espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En juin 2008, Otto Solbrig avait déjà décrit plus de 30 espèces nouvelles, en particulier dans la famille des Asteraceae.
 </t>
